--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1084,10 +1096,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1131,28 +1143,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1177,28 +1189,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1414,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1449,28 +1461,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1507,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1720,10 +1732,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1767,28 +1779,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1813,28 +1825,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2067,10 +2079,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2114,28 +2126,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2160,28 +2172,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2385,10 +2397,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2432,28 +2444,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2478,28 +2490,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2674,10 +2686,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2721,28 +2733,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2767,28 +2779,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2963,10 +2975,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3010,28 +3022,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3056,28 +3068,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3264,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3311,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3357,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3524,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3559,28 +3571,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3617,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3801,10 +3813,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3848,28 +3860,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3894,28 +3906,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4061,10 +4073,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4108,28 +4120,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4154,28 +4166,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4321,10 +4333,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4368,28 +4380,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4414,28 +4426,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4610,10 +4622,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4657,28 +4669,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4703,28 +4715,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4783,10 +4795,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4830,28 +4842,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4876,28 +4888,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5014,10 +5026,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5061,28 +5073,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5107,28 +5119,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5245,10 +5257,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5292,28 +5304,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5338,28 +5350,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5447,10 +5459,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5494,28 +5506,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5540,28 +5552,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5678,10 +5690,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5725,28 +5737,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5771,28 +5783,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5880,10 +5892,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5927,28 +5939,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5973,28 +5985,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6111,10 +6123,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6158,28 +6170,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6204,28 +6216,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6284,10 +6296,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6331,28 +6343,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6377,28 +6389,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6486,10 +6498,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6533,28 +6545,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6579,28 +6591,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6671,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
